--- a/3_ChemicalDemoSSAnalysis/2_OutputTables/Univariate_Stats_Res.xlsx
+++ b/3_ChemicalDemoSSAnalysis/2_OutputTables/Univariate_Stats_Res.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">class</t>
   </si>
@@ -38,10 +38,16 @@
     <t xml:space="preserve">padj_part</t>
   </si>
   <si>
-    <t xml:space="preserve">pval_race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">padj_race</t>
+    <t xml:space="preserve">pval_race_multigroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padj_race_multigroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval_race_twogroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padj_race_twogroup</t>
   </si>
   <si>
     <t xml:space="preserve">pval_lat</t>
@@ -638,13 +644,19 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>-0.201676583718485</v>
@@ -665,30 +677,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I2" t="n">
+        <v>0.231482666823662</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.334407326610638</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.98009967976381</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>0.996019526641423</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>0.363635752497823</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>-0.222317923906629</v>
@@ -709,30 +727,36 @@
         <v>0.500266775888193</v>
       </c>
       <c r="I3" t="n">
+        <v>0.162243824297981</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.55037316271027</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.851415058771372</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.924483047674162</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>0.637688351455215</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>-0.17399051247838</v>
@@ -753,30 +777,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I4" t="n">
+        <v>0.182678239808114</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.769549928520649</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.883557325338523</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.91656237138849</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>0.481365045779564</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
         <v>-0.0812781485273493</v>
@@ -797,30 +827,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I5" t="n">
+        <v>0.122279162986729</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.368427979854348</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.334407326610638</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.861387996871412</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>0.433670420162131</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
         <v>-0.0796870377084189</v>
@@ -841,30 +877,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I6" t="n">
+        <v>0.262801449659302</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.236762153378097</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>0.58717014037768</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.90864952743892</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>0.323531299054364</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>-0.1229494723719</v>
@@ -885,30 +927,36 @@
         <v>0.684891766678253</v>
       </c>
       <c r="I7" t="n">
+        <v>0.237543248514176</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.154591773825743</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>0.462856700190387</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.199801090169271</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>0.146947179655283</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>0.704799789368966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
         <v>-0.00955987744421213</v>
@@ -929,30 +977,36 @@
         <v>0.875580834298333</v>
       </c>
       <c r="I8" t="n">
+        <v>0.046261978350151</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.204874475550669</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.0991752958434753</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>0.432680029651612</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.861387094741166</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>0.312940590881733</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
         <v>-0.114763798943932</v>
@@ -973,30 +1027,36 @@
         <v>0.833305121409556</v>
       </c>
       <c r="I9" t="n">
+        <v>0.497553354144469</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.648091565086307</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.312329687610528</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.118408042423202</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>0.222061096782582</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>0.809869882383533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>-0.0746244123754582</v>
@@ -1017,30 +1077,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I10" t="n">
+        <v>0.347326549026611</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.525225513162193</v>
+      </c>
+      <c r="K10" t="n">
         <v>0.919224868051638</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>0.949865696986693</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.0433357915943132</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>0.147780600996719</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>0.704799789368966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
         <v>-0.212518491736735</v>
@@ -1061,30 +1127,36 @@
         <v>0.0326051474383765</v>
       </c>
       <c r="I11" t="n">
+        <v>0.30236470531764</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.468665293242341</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.967044573986043</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>0.982897763723519</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.45728228444593</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.73659796715496</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>0.458216535062213</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>-0.15023505046513</v>
@@ -1105,30 +1177,36 @@
         <v>0.0326051474383765</v>
       </c>
       <c r="I12" t="n">
+        <v>0.0216012382795745</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.591199730152721</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>0.851415058771372</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.107097257354705</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>0.475208504484866</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
         <v>-0.203814076118252</v>
@@ -1149,30 +1227,36 @@
         <v>0.0326051474383765</v>
       </c>
       <c r="I13" t="n">
+        <v>0.229880500956525</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.657620041245658</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>0.859754619527834</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.15508164671313</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>0.269429360636726</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>-0.184102041491208</v>
@@ -1193,30 +1277,36 @@
         <v>0.0683341741470059</v>
       </c>
       <c r="I14" t="n">
+        <v>0.0184603524830191</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.671259305779257</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>0.859754619527834</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.104941302046296</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>0.616024250902071</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" t="n">
         <v>-0.174003090177665</v>
@@ -1237,30 +1327,36 @@
         <v>0.0326051474383765</v>
       </c>
       <c r="I15" t="n">
+        <v>0.00513426241162844</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.106108089840321</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.385602232197611</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.703157011654467</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.279000679905453</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>0.675713782330358</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
         <v>-0.160565176798559</v>
@@ -1281,30 +1377,36 @@
         <v>0.35472561685122</v>
       </c>
       <c r="I16" t="n">
+        <v>0.70498556409062</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.794710999520335</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.707217509611605</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>0.859754619527834</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.678821295947519</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.914825433172753</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>0.852394410242977</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>0.855002323433754</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
         <v>-0.179953318653418</v>
@@ -1325,30 +1427,36 @@
         <v>0.969021339865271</v>
       </c>
       <c r="I17" t="n">
+        <v>0.16957417613014</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.0290950334738337</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>0.180389207537769</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.283455390511081</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>0.071901205281358</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>0.557234340930524</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
         <v>-0.166008087054445</v>
@@ -1369,30 +1477,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I18" t="n">
+        <v>0.916840282695457</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.931870451264235</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.535436362906881</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>0.851206525646836</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.900745464257331</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>0.395120599330943</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>-0.165692494825896</v>
@@ -1413,30 +1527,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I19" t="n">
+        <v>0.50383741946132</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.648091565086307</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.68776886443792</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.859754619527834</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.783790051972016</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>0.791359044339446</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>0.831597639814333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="n">
         <v>-0.129039893492148</v>
@@ -1457,30 +1577,36 @@
         <v>0.833305121409556</v>
       </c>
       <c r="I20" t="n">
+        <v>0.808836522732413</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.864618351886373</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.604230041708715</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.851415058771372</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.803017746754528</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>0.355757317859053</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
         <v>0.0373582300543924</v>
@@ -1501,30 +1627,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I21" t="n">
+        <v>0.512201398213372</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.648091565086307</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.570615172956112</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>0.851415058771372</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.410422703131296</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.706839099837233</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>0.598438698306027</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="n">
         <v>-0.0946645188882685</v>
@@ -1545,30 +1677,36 @@
         <v>0.967385491594163</v>
       </c>
       <c r="I22" t="n">
+        <v>0.383153429069687</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.539898013689105</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.991009789740368</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>0.991009789740368</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.186158569508924</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>0.710201228081818</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="n">
         <v>0.0437686971967776</v>
@@ -1589,30 +1727,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I23" t="n">
+        <v>0.238761488213825</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.338182450143757</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.60736026109467</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.875728748555106</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>0.390481088259335</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
         <v>0.0335842729880036</v>
@@ -1633,30 +1777,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I24" t="n">
+        <v>0.29079964403194</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.462296869999494</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.308745645361524</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.693496699340636</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.914825433172753</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>0.386446152058102</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" t="n">
         <v>0.110990206747063</v>
@@ -1677,30 +1827,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I25" t="n">
+        <v>0.65751149731682</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7691643930876</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.886506672135517</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.947645063317277</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.992039152348095</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.996019526641423</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>0.283235705198903</v>
       </c>
-      <c r="N25" t="n">
+      <c r="P25" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
         <v>-0.27611690062729</v>
@@ -1721,30 +1877,36 @@
         <v>0.280998147107543</v>
       </c>
       <c r="I26" t="n">
+        <v>0.766244732711264</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.833459182949094</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.47313779707247</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>0.792825497797112</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.642678361573571</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.90559223676276</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>0.358838711512662</v>
       </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
         <v>0.0203819980937375</v>
@@ -1765,30 +1927,36 @@
         <v>0.222228632925257</v>
       </c>
       <c r="I27" t="n">
+        <v>0.037390591482311</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.197751991056888</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.016059856395116</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>0.124463887062149</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.526357532397423</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.805825457589972</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>0.103755142147213</v>
       </c>
-      <c r="N27" t="n">
+      <c r="P27" t="n">
         <v>0.643281881312721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n">
         <v>-0.138472665113615</v>
@@ -1809,30 +1977,36 @@
         <v>0.363091939450155</v>
       </c>
       <c r="I28" t="n">
+        <v>0.0775187110403512</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.287793728298987</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.00924494582802484</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>0.0818838059053629</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.0686209102953808</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M28" t="n">
+      <c r="O28" t="n">
         <v>0.730601668777542</v>
       </c>
-      <c r="N28" t="n">
+      <c r="P28" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="n">
         <v>-0.152931236830561</v>
@@ -1853,30 +2027,36 @@
         <v>0.588485017909019</v>
       </c>
       <c r="I29" t="n">
+        <v>0.274382349835447</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.274402664793374</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.996019526641423</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.996019526641423</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>0.848399605107277</v>
       </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
         <v>0.855002323433754</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="n">
         <v>-0.028870114074065</v>
@@ -1897,30 +2077,36 @@
         <v>0.395830674682211</v>
       </c>
       <c r="I30" t="n">
+        <v>0.840056853959233</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.882771609245296</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.423702964460378</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>0.729710661015095</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.16096022933118</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>0.638024604098257</v>
       </c>
-      <c r="N30" t="n">
+      <c r="P30" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" t="n">
         <v>0.0397185969304091</v>
@@ -1941,30 +2127,36 @@
         <v>0.280998147107543</v>
       </c>
       <c r="I31" t="n">
+        <v>0.429736783828931</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.592081791053194</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.227950860416598</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>0.58717014037768</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.572935838694013</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.845762428548305</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>0.125887648317015</v>
       </c>
-      <c r="N31" t="n">
+      <c r="P31" t="n">
         <v>0.704799789368966</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" t="n">
         <v>0.0461553634251733</v>
@@ -1985,30 +2177,36 @@
         <v>0.280998147107543</v>
       </c>
       <c r="I32" t="n">
+        <v>0.365354222828185</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.53933242417494</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.124495172983134</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>0.44490283726067</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.393613434218372</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.706839099837233</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>0.183322962141549</v>
       </c>
-      <c r="N32" t="n">
+      <c r="P32" t="n">
         <v>0.809869882383533</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="n">
         <v>0.106019612807085</v>
@@ -2029,30 +2227,36 @@
         <v>0.831438894973126</v>
       </c>
       <c r="I33" t="n">
+        <v>0.584839372391797</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.710981197809635</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.328794194805715</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.315981667860047</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.631963335720094</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>0.682884216417759</v>
       </c>
-      <c r="N33" t="n">
+      <c r="P33" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" t="n">
         <v>-0.0694438965376675</v>
@@ -2073,30 +2277,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I34" t="n">
+        <v>0.0209985620896165</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.128219071609157</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>0.44490283726067</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.278997519129791</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>0.0666748324878521</v>
       </c>
-      <c r="N34" t="n">
+      <c r="P34" t="n">
         <v>0.557234340930524</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C35" t="n">
         <v>-0.057547216334965</v>
@@ -2117,30 +2327,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I35" t="n">
+        <v>0.0365967562803196</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.197751991056888</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.19503824872551</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>0.525755279173113</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.532884576793369</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.805825457589972</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>0.0186607285611126</v>
       </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>0.289241292697245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" t="n">
         <v>-0.0191327788557342</v>
@@ -2161,30 +2377,36 @@
         <v>0.259423297038006</v>
       </c>
       <c r="I36" t="n">
+        <v>0.464423150907763</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.625961638180028</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.789722350961133</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>0.890232468356187</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.463343882565217</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.73659796715496</v>
       </c>
-      <c r="M36" t="n">
+      <c r="O36" t="n">
         <v>0.752753655908464</v>
       </c>
-      <c r="N36" t="n">
+      <c r="P36" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C37" t="n">
         <v>-0.0709035201914605</v>
@@ -2205,30 +2427,36 @@
         <v>0.281793418535441</v>
       </c>
       <c r="I37" t="n">
+        <v>0.0789111835658513</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.287793728298987</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.332526813082957</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>0.635373088148877</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.92052183464453</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>0.589463258115886</v>
       </c>
-      <c r="N37" t="n">
+      <c r="P37" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" t="n">
         <v>-0.161092226470183</v>
@@ -2249,30 +2477,36 @@
         <v>0.280998147107543</v>
       </c>
       <c r="I38" t="n">
+        <v>0.205685037760723</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.156774043612873</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>0.462856700190387</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.265917078919595</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M38" t="n">
+      <c r="O38" t="n">
         <v>0.562704681491305</v>
       </c>
-      <c r="N38" t="n">
+      <c r="P38" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="n">
         <v>-0.0283178276741056</v>
@@ -2293,30 +2527,36 @@
         <v>0.259423297038006</v>
       </c>
       <c r="I39" t="n">
+        <v>0.95054966148114</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.95054966148114</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.766681333212745</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>0.883557325338523</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.26165957048503</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M39" t="n">
+      <c r="O39" t="n">
         <v>0.671495245247938</v>
       </c>
-      <c r="N39" t="n">
+      <c r="P39" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="n">
         <v>-0.103528081318132</v>
@@ -2337,30 +2577,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I40" t="n">
+        <v>0.912706651394362</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.931870451264235</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.696078511336558</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>0.859754619527834</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.884966848331056</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>0.429835308049634</v>
       </c>
-      <c r="N40" t="n">
+      <c r="P40" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C41" t="n">
         <v>0.000578585752338355</v>
@@ -2381,30 +2627,36 @@
         <v>0.237041663581886</v>
       </c>
       <c r="I41" t="n">
+        <v>0.755069157397457</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.833459182949094</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.628020258421079</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>0.853658759590049</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.445293721561685</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.73659796715496</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>0.638653276615813</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" t="n">
         <v>0.064164055899804</v>
@@ -2425,30 +2677,36 @@
         <v>0.330013605393874</v>
       </c>
       <c r="I42" t="n">
+        <v>0.375989621782162</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.539898013689105</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.129165339849872</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>0.44490283726067</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.884967223862767</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.971490660267763</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>0.528365886784271</v>
       </c>
-      <c r="N42" t="n">
+      <c r="P42" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C43" t="n">
         <v>-0.068089247146057</v>
@@ -2469,30 +2727,36 @@
         <v>0.547381387903403</v>
       </c>
       <c r="I43" t="n">
+        <v>0.688046332090814</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.789979122030194</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.76381444435495</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>0.883557325338523</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.0834312436146639</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>0.360739675604294</v>
       </c>
-      <c r="N43" t="n">
+      <c r="P43" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" t="n">
         <v>0.00665726431110098</v>
@@ -2513,30 +2777,36 @@
         <v>0.833305121409556</v>
       </c>
       <c r="I44" t="n">
+        <v>0.267350429536522</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.508568744272935</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.829770056445315</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.382625228855902</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.706839099837233</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>0.621901781701107</v>
       </c>
-      <c r="N44" t="n">
+      <c r="P44" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C45" t="n">
         <v>0.0885143398161663</v>
@@ -2557,30 +2827,36 @@
         <v>0.330013605393874</v>
       </c>
       <c r="I45" t="n">
+        <v>0.249260807848473</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.0588588434531468</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>0.304104024507925</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.667895153115942</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.914825433172753</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>0.456979121588368</v>
       </c>
-      <c r="N45" t="n">
+      <c r="P45" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C46" t="n">
         <v>-0.0147802360370071</v>
@@ -2601,30 +2877,36 @@
         <v>0.833305121409556</v>
       </c>
       <c r="I46" t="n">
+        <v>0.120479521828351</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.368427979854348</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.0274728997235179</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>0.180389207537769</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.143819370735992</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>0.00834301924684546</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
         <v>0.17242239776814</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C47" t="n">
         <v>0.0788454584322903</v>
@@ -2645,30 +2927,36 @@
         <v>0.872262556265429</v>
       </c>
       <c r="I47" t="n">
+        <v>0.00153713488068462</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0476511813012232</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.00166817766282944</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>0.0433424724952535</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.715722472216408</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.924474859946194</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>0.694184462327688</v>
       </c>
-      <c r="N47" t="n">
+      <c r="P47" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" t="n">
         <v>-0.00697590321853403</v>
@@ -2689,30 +2977,36 @@
         <v>0.983604639992214</v>
       </c>
       <c r="I48" t="n">
+        <v>0.0147337363733592</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.00646821285180204</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.0668381994686211</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.245078072601809</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>0.00177483886442177</v>
       </c>
-      <c r="N48" t="n">
+      <c r="P48" t="n">
         <v>0.11004000959415</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C49" t="n">
         <v>0.0930142345264853</v>
@@ -2733,30 +3027,36 @@
         <v>0.227594504110716</v>
       </c>
       <c r="I49" t="n">
+        <v>0.236566381650303</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.094644719868383</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.432680029651612</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.279000679905453</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>0.855002323433754</v>
       </c>
-      <c r="N49" t="n">
+      <c r="P49" t="n">
         <v>0.855002323433754</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C50" t="n">
         <v>0.115441007267691</v>
@@ -2777,30 +3077,36 @@
         <v>0.227594504110716</v>
       </c>
       <c r="I50" t="n">
+        <v>0.26387690810234</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.447676465520993</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.150286010758983</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>0.462856700190387</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.287958030334879</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>0.777970626160501</v>
       </c>
-      <c r="N50" t="n">
+      <c r="P50" t="n">
         <v>0.831597639814333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C51" t="n">
         <v>0.0363788183623286</v>
@@ -2821,30 +3127,36 @@
         <v>0.330013605393874</v>
       </c>
       <c r="I51" t="n">
+        <v>0.0425536463618538</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.202948159571918</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.104680652335067</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.432680029651612</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.0311484936092966</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>0.488848127453643</v>
       </c>
-      <c r="N51" t="n">
+      <c r="P51" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C52" t="n">
         <v>-0.0955258226786813</v>
@@ -2865,30 +3177,36 @@
         <v>0.817656180835233</v>
       </c>
       <c r="I52" t="n">
+        <v>0.0911245032354228</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.313873288922012</v>
+      </c>
+      <c r="K52" t="n">
         <v>0.423702964460378</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.729710661015095</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.210502189239305</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>0.748450008681382</v>
       </c>
-      <c r="N52" t="n">
+      <c r="P52" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C53" t="n">
         <v>-0.104572799897063</v>
@@ -2909,30 +3227,36 @@
         <v>0.777101944061697</v>
       </c>
       <c r="I53" t="n">
+        <v>0.124790122208731</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.368427979854348</v>
+      </c>
+      <c r="K53" t="n">
         <v>0.591199730152721</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>0.851415058771372</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.170089385788426</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>0.670219465091543</v>
       </c>
-      <c r="N53" t="n">
+      <c r="P53" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C54" t="n">
         <v>-0.161957986788076</v>
@@ -2953,30 +3277,36 @@
         <v>0.0683341741470059</v>
       </c>
       <c r="I54" t="n">
+        <v>0.0216638226481099</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K54" t="n">
         <v>0.00406223624835463</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>0.0515825504901792</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.399169642798855</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.706839099837233</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>0.100171040226739</v>
       </c>
-      <c r="N54" t="n">
+      <c r="P54" t="n">
         <v>0.643281881312721</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C55" t="n">
         <v>0.213846609031875</v>
@@ -2997,30 +3327,36 @@
         <v>0.177188408875379</v>
       </c>
       <c r="I55" t="n">
+        <v>0.0576469419381698</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.238274026677769</v>
+      </c>
+      <c r="K55" t="n">
         <v>0.633359724857133</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>0.853658759590049</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.085226909927052</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>0.401402014910995</v>
       </c>
-      <c r="N55" t="n">
+      <c r="P55" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C56" t="n">
         <v>-0.191189716957352</v>
@@ -3041,30 +3377,36 @@
         <v>0.259423297038006</v>
       </c>
       <c r="I56" t="n">
+        <v>0.00000553834703798259</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.000343377516354921</v>
+      </c>
+      <c r="K56" t="n">
         <v>0.000000388998370271501</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>0.000024117898956833</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.167004180472629</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>0.00501982788202517</v>
       </c>
-      <c r="N56" t="n">
+      <c r="P56" t="n">
         <v>0.15561466434278</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C57" t="n">
         <v>-0.00184095466653113</v>
@@ -3085,30 +3427,36 @@
         <v>0.833305121409556</v>
       </c>
       <c r="I57" t="n">
+        <v>0.179292299417606</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K57" t="n">
         <v>0.913264334438073</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>0.949865696986693</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.16096022933118</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>0.5750163778973</v>
       </c>
-      <c r="N57" t="n">
+      <c r="P57" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C58" t="n">
         <v>-0.0951313323929961</v>
@@ -3129,30 +3477,36 @@
         <v>0.854602492514319</v>
       </c>
       <c r="I58" t="n">
+        <v>0.154683281010031</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.812948719204432</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.900050367690621</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.393613434218372</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.706839099837233</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>0.548232596153615</v>
       </c>
-      <c r="N58" t="n">
+      <c r="P58" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C59" t="n">
         <v>-0.169604523492275</v>
@@ -3173,30 +3527,36 @@
         <v>0.0683341741470059</v>
       </c>
       <c r="I59" t="n">
+        <v>0.536229303397212</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.664924336212542</v>
+      </c>
+      <c r="K59" t="n">
         <v>0.175133705976897</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>0.493558625934893</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.292508662014572</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>0.717773281995735</v>
       </c>
-      <c r="N59" t="n">
+      <c r="P59" t="n">
         <v>0.818784678356575</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C60" t="n">
         <v>-0.124389361914651</v>
@@ -3217,30 +3577,36 @@
         <v>0.177188408875379</v>
       </c>
       <c r="I60" t="n">
+        <v>0.0142095095820327</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.149239667131424</v>
+      </c>
+      <c r="K60" t="n">
         <v>0.00209721641106065</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.0433424724952535</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.00831341170726617</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.265401543732295</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>0.0353751128607898</v>
       </c>
-      <c r="N60" t="n">
+      <c r="P60" t="n">
         <v>0.438651399473793</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C61" t="n">
         <v>-0.313120089424566</v>
@@ -3261,30 +3627,36 @@
         <v>0.145672145764916</v>
       </c>
       <c r="I61" t="n">
+        <v>0.0382745789142364</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.197751991056888</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.00415988310404671</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>0.0515825504901792</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.00856134012039662</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.265401543732295</v>
       </c>
-      <c r="M61" t="n">
+      <c r="O61" t="n">
         <v>0.0698112349356198</v>
       </c>
-      <c r="N61" t="n">
+      <c r="P61" t="n">
         <v>0.557234340930524</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" t="n">
         <v>-0.291594069502341</v>
@@ -3305,30 +3677,36 @@
         <v>0.177188408875379</v>
       </c>
       <c r="I62" t="n">
+        <v>0.174231796678266</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.419483365485299</v>
+      </c>
+      <c r="K62" t="n">
         <v>0.0344649302204754</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>0.194256879424498</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.0641925337995043</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>0.218718716539874</v>
       </c>
-      <c r="N62" t="n">
+      <c r="P62" t="n">
         <v>0.809869882383533</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C63" t="n">
         <v>-0.154850586807647</v>
@@ -3349,21 +3727,27 @@
         <v>0.171157453772724</v>
       </c>
       <c r="I63" t="n">
+        <v>0.651856419219554</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.7691643930876</v>
+      </c>
+      <c r="K63" t="n">
         <v>0.853981550772356</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>0.928892213120808</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.279000679905453</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.604517901496783</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>0.196140975305301</v>
       </c>
-      <c r="N63" t="n">
+      <c r="P63" t="n">
         <v>0.809869882383533</v>
       </c>
     </row>
